--- a/biology/Zoologie/Carapidae/Carapidae.xlsx
+++ b/biology/Zoologie/Carapidae/Carapidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Carapidae forment une famille de poissons de l'ordre des Ophidiiformes. 
 Bien qu'en grande partie abyssaux, certaines espèces vivent en symbiose ou bien parasitant des organismes littoraux comme des étoiles de mer ou des holothuries. Ces poissons peuvent rentrer par la bouche ou le cloaque de leurs hôtes pour s'y installer. 
-Les Carapidea ont la particularité, une fois installés, de pouvoir produire des sons parfois audibles jusqu'à 50 m pour signaler leur présence ou simplement pour s'identifier[2].
+Les Carapidea ont la particularité, une fois installés, de pouvoir produire des sons parfois audibles jusqu'à 50 m pour signaler leur présence ou simplement pour s'identifier.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste des sous-familles et genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (15 juin 2011)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (15 juin 2011) :
 sous-famille Carapinae
 genre Carapus Rafinesque, 1810
 genre Echiodon Thompson, 1837
